--- a/Assets/OriginalDatas/SpecialAbility.xlsx
+++ b/Assets/OriginalDatas/SpecialAbility.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>属性ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,26 +55,6 @@
   </si>
   <si>
     <t>DesTextID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性介绍的文字段ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +116,80 @@
   <si>
     <t>参数3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSingleAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random3TargetsAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSingleHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random3TargetsHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CureSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random3TargetsHealAndCure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSIngleAttackAndInfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random3TargetsAttackAndInfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_2</t>
+  </si>
+  <si>
+    <t>Skill_3</t>
+  </si>
+  <si>
+    <t>Skill_4</t>
+  </si>
+  <si>
+    <t>Skill_5</t>
+  </si>
+  <si>
+    <t>Skill_6</t>
+  </si>
+  <si>
+    <t>Skill_7</t>
+  </si>
+  <si>
+    <t>Skill_8</t>
+  </si>
+  <si>
+    <t>Skill_9</t>
+  </si>
+  <si>
+    <t>Skill_10</t>
+  </si>
+  <si>
+    <t>Skill_11</t>
   </si>
 </sst>
 </file>
@@ -465,17 +515,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I6"/>
+      <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
@@ -490,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -499,30 +549,30 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -531,19 +581,19 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -553,29 +603,29 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -585,29 +635,29 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -617,29 +667,29 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -649,32 +699,256 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>300</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>400</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>2000</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>2000</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -701,19 +975,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/OriginalDatas/SpecialAbility.xlsx
+++ b/Assets/OriginalDatas/SpecialAbility.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,16 +616,16 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -648,16 +648,16 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -680,16 +680,16 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -712,16 +712,16 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -744,16 +744,16 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -776,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -808,16 +808,16 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -840,16 +840,16 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -872,16 +872,16 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -904,16 +904,16 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -936,16 +936,16 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>3</v>

--- a/Assets/OriginalDatas/SpecialAbility.xlsx
+++ b/Assets/OriginalDatas/SpecialAbility.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>属性ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,43 @@
   </si>
   <si>
     <t>Skill_11</t>
+  </si>
+  <si>
+    <t>技能特效名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Behit_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Behit_Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Heal_Z</t>
+  </si>
+  <si>
+    <t>Skill_BehitInfect_H</t>
+  </si>
+  <si>
+    <t>Skill_Cure_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Heal_H</t>
+  </si>
+  <si>
+    <t>Skill_Heal_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_HealCure_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,7 +572,7 @@
     <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +603,11 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -598,8 +638,11 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -630,8 +673,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -662,8 +708,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -694,8 +743,11 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -726,8 +778,11 @@
       <c r="J6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -758,8 +813,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -790,8 +848,11 @@
       <c r="J8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>200</v>
       </c>
@@ -822,8 +883,11 @@
       <c r="J9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>300</v>
       </c>
@@ -854,8 +918,11 @@
       <c r="J10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>400</v>
       </c>
@@ -886,8 +953,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>500</v>
       </c>
@@ -918,8 +988,11 @@
       <c r="J12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>600</v>
       </c>
@@ -949,6 +1022,9 @@
       </c>
       <c r="J13">
         <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
